--- a/lab2/Tablice.xlsx
+++ b/lab2/Tablice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\cyfrówka\Cyfrowka\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AGH\Cyfrowka\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6D4ACC-C36E-4B03-A253-965FA0E33669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDEAA2B-D893-42AB-B14A-94F9C246BDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A25FE13-030C-4219-BE43-B6510BAC144D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{5A25FE13-030C-4219-BE43-B6510BAC144D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="23">
   <si>
     <t>f0</t>
   </si>
@@ -93,16 +93,35 @@
   </si>
   <si>
     <t>dc + d-c-ba + d-cb</t>
+  </si>
+  <si>
+    <t>ba + c-b-a + d-b-a</t>
+  </si>
+  <si>
+    <t>b-a + d-b-a + c-b-a</t>
+  </si>
+  <si>
+    <t>cb + ca + -a-b-cd</t>
+  </si>
+  <si>
+    <t>da + db + cd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -482,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD265BD-5330-450A-907C-84AFFEC33B00}">
   <dimension ref="E6:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,10 +626,10 @@
         <v>5</v>
       </c>
       <c r="W8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -661,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -715,10 +734,10 @@
         <v>12</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -760,7 +779,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>13</v>
@@ -769,10 +788,10 @@
         <v>12</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -814,7 +833,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>13</v>
@@ -823,10 +842,10 @@
         <v>12</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>15</v>
@@ -874,7 +893,9 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -920,7 +941,6 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -969,10 +989,10 @@
         <v>5</v>
       </c>
       <c r="W15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -1023,10 +1043,10 @@
         <v>12</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
@@ -1077,10 +1097,10 @@
         <v>12</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -1122,7 +1142,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>13</v>
@@ -1131,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -1176,7 +1196,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>13</v>
@@ -1185,10 +1205,10 @@
         <v>12</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>16</v>
@@ -1236,7 +1256,9 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
+      <c r="Y20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -1331,10 +1353,10 @@
         <v>5</v>
       </c>
       <c r="W22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -1430,19 +1452,19 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -1466,19 +1488,19 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>17</v>
@@ -1508,7 +1530,9 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -1567,10 +1591,10 @@
         <v>5</v>
       </c>
       <c r="W29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X29" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
@@ -1666,10 +1690,10 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>13</v>
@@ -1702,10 +1726,10 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>13</v>
@@ -1744,12 +1768,15 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
+      <c r="Y34" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lab2/Tablice.xlsx
+++ b/lab2/Tablice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AGH\Cyfrowka\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDEAA2B-D893-42AB-B14A-94F9C246BDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F9E232-2E0A-434A-A8EE-7FD804278114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{5A25FE13-030C-4219-BE43-B6510BAC144D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5A25FE13-030C-4219-BE43-B6510BAC144D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>b-a + d-b-a + c-b-a</t>
   </si>
   <si>
-    <t>cb + ca + -a-b-cd</t>
-  </si>
-  <si>
     <t>da + db + cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cb + ca + -a-b-cd </t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="E6:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1531,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
@@ -1769,7 +1769,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
